--- a/docs/workTable.xlsx
+++ b/docs/workTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\projects\planner_sample\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\projects\planner_sample\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7B64BC-C289-4617-8A03-F11448D446A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED07C8C5-F849-4461-96E2-232CF4435102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{B7F966B6-483A-4A64-8E2C-C65E13B16CA7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Павел</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Эдуард</t>
+  </si>
+  <si>
+    <t>МАРТ</t>
   </si>
 </sst>
 </file>
@@ -62,15 +65,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -78,12 +93,403 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -398,43 +804,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829A83C8-D706-49D1-8976-495E3DB90050}">
-  <dimension ref="B6:B10"/>
+  <dimension ref="B3:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="33" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="3" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="5"/>
+      <c r="C4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="27"/>
+    </row>
+    <row r="5" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10"/>
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28">
+        <v>2</v>
+      </c>
+      <c r="E5" s="28">
+        <v>3</v>
+      </c>
+      <c r="F5" s="21">
+        <v>4</v>
+      </c>
+      <c r="G5" s="28">
+        <v>5</v>
+      </c>
+      <c r="H5" s="28">
+        <v>6</v>
+      </c>
+      <c r="I5" s="28">
+        <v>7</v>
+      </c>
+      <c r="J5" s="28">
+        <v>8</v>
+      </c>
+      <c r="K5" s="28">
+        <v>9</v>
+      </c>
+      <c r="L5" s="28">
+        <v>10</v>
+      </c>
+      <c r="M5" s="21">
+        <v>11</v>
+      </c>
+      <c r="N5" s="17">
+        <v>12</v>
+      </c>
+      <c r="O5" s="8">
+        <v>13</v>
+      </c>
+      <c r="P5" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>15</v>
+      </c>
+      <c r="R5" s="8">
+        <v>16</v>
+      </c>
+      <c r="S5" s="13">
+        <v>17</v>
+      </c>
+      <c r="T5" s="21">
+        <v>18</v>
+      </c>
+      <c r="U5" s="17">
+        <v>19</v>
+      </c>
+      <c r="V5" s="8">
+        <v>20</v>
+      </c>
+      <c r="W5" s="8">
+        <v>21</v>
+      </c>
+      <c r="X5" s="8">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="21">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="17">
+        <v>26</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>28</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>29</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>30</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>4</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="22">
+        <v>3</v>
+      </c>
+      <c r="U6" s="18"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="2"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="2"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="10" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:AG4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>